--- a/WebPage/Common/RptTemplet/0503Report.xlsx
+++ b/WebPage/Common/RptTemplet/0503Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EOS_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50DD10C-68CD-4464-99A5-D902366F8C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FADE397-7176-47A9-97E0-08078D3BB83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="-14295" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="-12720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -113,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -408,15 +409,16 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/WebPage/Common/RptTemplet/0503Report.xlsx
+++ b/WebPage/Common/RptTemplet/0503Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FADE397-7176-47A9-97E0-08078D3BB83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39ED939-FCBD-4094-82C1-C7316DDD3BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="-12720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
